--- a/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,36 +52,21 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Well, good morning, and I want to thank the Chairman for holding today's hearing, and I associate myself with his comments on the need to get this done on time. That should be the standard, and that is what should be expected to give that certainty to our shippers, and to our global market partners. And I certainly look forward to working with everyone on the Subcommittee to get this done.    I want to thank our witnesses for being here. We have a wide variety of expertise amongst us, from Farm Bureau to NGFA to our friends in labor at AFGE, the folks who do the work out there.    I fully expect this cross-section of views will promote a vigorous debate, and that is what we are here to do. I think the reason, and everyone knows, the one overriding theme that we are here for is we must maintain the integrity of the system. It must be the gold standard as it has always been. It must be done that way, and we all absolutely agree upon that. There may be some divergence of opinion on how we get there. That is our job to get done. So I look forward to hearing those opinions, working with Chairman Crawford, a Chairman who I know is committed, as he always has been, to get this done on time, to get it done in a manner that satisfies all parties involved, and that we can move forward doing what we do best: feed the world. And that is what you do, and that is what we want to see happen.    And so I thank you, Chairman, for holding this hearing, and again, I look forward to working with you to get this done on time.    The Chairman. I thank the gentleman, and would recognize the Chairman of the full Committee, who is not here just yet, he will be here later on, we will recognize him when he arrives. And I would also like to recognize the Ranking Member of the full Committee for any opening statement he would like to make. Mr. Peterson.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman, and Mr. Walz, for holding today's hearing, and for working in a bipartisan way. It looks like we are going to get this bill worked out in a way that everybody can live with.    The inspections provided by the Federal Grain Inspection Service define and classify grains as well as assign grades to specify weight and quality requirements, and these inspections provide a gold standard assurance backed by the Federal Government to both grain buyers and sellers. American grain farmers participate in a very competitive world, and foreign grain buyers should be confident in the process that we have in place to ensure our exports are adequately inspected.    So as we move ahead with reauthorization, I hope that we can take stock in how well the current system of export inspections by the Federal and state agencies is working, and continue to work in a bipartisan basis and get this reauthorization moved through the both Houses and to the President's desk.    And I yield back.    The Chairman. I thank the gentleman.    I would like to recognize our witnesses. We have one panel and three witnesses. Starting with Mr. David Winkles, who is the President of South Carolina Farm Bureau Federation, Columbia, South Carolina; Mr. J. David Cox, Sr., National President, American Federation of Government Employees, here in Washington, D.C.; and Mr. Nick Friant, Chairman, NGFA Grain Grades and Weights Committee.    Thank you, gentlemen, for being here. And with that, I want to remind you that you have 5 minutes to make your oral testimony. Anything further will be submitted for the record in your written testimony. I would encourage you to watch the lights. Green means go, yellow is just like when you are driving; hurry it up, and when you see red, that means stop.    And with that, I am pleased to recognize Mr. David Winkles for 5 minutes. STATEMENT OF DAVID M. WINKLES, Jr., PRESIDENT, SOUTH CAROLINA </t>
   </si>
   <si>
-    <t>Winkles</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Winkles. Thank you, Mr. Chairman. For the record, Mr. Chairman, I received word from the American Soybean Association, the National Corn Growers Association, and the National Council of Farmer Cooperatives, informing me that they had received my written testimony, and have asked that I inform the Subcommittee that they support the points made in my testimony.    As a grain farmer, I understand the role and the work of the Federal Grain Inspection Service in the grain sector, but I believe I can add a unique perspective this morning, since I have had direct interactive experience with the FGIS through my responsibilities as President of the South Carolina Farm Bureau.    For several years, our organization operated a grain export elevator in Charleston, South Carolina. We were also in partnership with Carolina Soya in Hampton, South Carolina, a grain-handling and soybean processing operation, that provided a huge positive financial impact on the farmers in the Southeast. In the past, the South Carolina Farm Bureau Marketing Association operated a large number of local grain elevators, and we still own and operate one. In each of these facilities, FGIS was and is a major asset in our ability to market grains domestically and internationally. The grades established by the agency served to set the standard for every contract, and when coupled with the official inspection services, particularly with regards to export, FGIS provided the necessary and credible third party verification of grain standards that provide efficiencies in the marketing and movement of grain. Without these standards and verification of grades, every transaction would have been significantly more difficult and much more expensive.    As I am sure you know, in order to encourage the marketing of high quality grain for an agricultural sector, it is highly dependent upon export demand. The Act requires that exported grains and oilseeds be officially inspected if sold by grade and weight. Export inspections are carried out either by Federal inspectors or federally supervised state agencies called delegated official inspection agencies. We believe that any change in these fundamental requirements needs to be thoroughly and carefully considered in the context of how our international customers and their respective governments would view such changes. This is important today when some countries have shown very little reluctance to use some very interesting excuses to stop or inhibit exports of U.S. agricultural commodities and products.    We applaud your actions to move this legislation earlier this year because, as you know and as you have said, several provisions of the Act will expire in September, including the authority for FGIS to collect user fees that fund their operations, and the authority for the USDA Grain Advisory Committee. It is critically important to the grain sector that we maintain the ability for FGIS to continue to perform its duties and functions and not be allowed to lapse. We urge the Committee to reauthorize the Act in a timely manner.    Also, Farm Bureau believes that it is important to ensure that the extremely troubling precedent set in the State of Washington last summer, and similar situations that have occurred at other West Coast ports, are not repeated. We believe that the Washington State Department of Agriculture's actions created a precedent that was amplified by the FGIS decision to not intervene. The incident created uncertainty in our reputation as a reliable supplier of grains and oilseeds to foreign customers. We believe it is imperative for you to consider adoption of a contingency plan that would ensure an immediate and effective program to continue official services at a port. The lack or disruption of an accepted grain standards and accepted accredited inspection procedure will cause chaotic marketing conditions, and will financially negatively impact farmers, local business, and consumers.    Disruption of official grading and inspection services can have an impact on the timing of purchases and the delivery of sales, and jeopardize marketing agreements and arrangements that have often taken years to put in place. We must have contingency procedures ready so that disruptions of any kind will not negatively impact the viability of hard-won contracts.    Again, thank you for the opportunity to testify today. Farm Bureau supports reauthorization of the Act, in addition to the Federal organizations I mentioned earlier, with the addition of a contingency plan. We also support the continuation of the Grain Inspection Advisory Committee. For all of our grain farmers and our industry sector partners, we appreciate the important work you do as Representatives of our country. Thank you.</t>
   </si>
   <si>
-    <t>Cox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cox. Thank you, Mr. Chairman. And on behalf of AFGE, I am proud to represent the dedicated Federal employees and the Federal Grain Inspection Service in Louisiana, Texas, Washington, and Oregon, as well as other locations throughout the country. And I appreciate the sincere efforts of this Subcommittee to take into account our views as lawmakers draft the reauthorization measure.    FGIS, with its successful record of over 4 decades of inspecting and weighing nearly 90 percent of the grain shipped to customers around the world, guarantees impartial and open trading which greatly facilitates U.S. grain exports. We understand that a small minority of voices demand that the reauthorization bill be used to privatize the weighing and inspection of grain. Of course, many of these same voices called for the privatization of grain inspection and weighing back in 2005, the last time the law was reauthorized. That ill-advised effort ultimately failed thanks to a broad coalition of farmers, consumers, and workers. There is no question that this important function must continue to be performed by reliable and experienced FGIS employees, and I strongly urge the Subcommittee to oppose efforts to use the reauthorization of the U.S. Grain Standards Act, or any other measure for that matter, to promote the privatization of this work. Privatization of FGIS would undermine America's guarantee of impartial and honest government-backed trading, which is relied upon by world buyers. The substitution of rubber-stamped inspections actually completed by industry paid inspectors would undermine international confidence in the integrity of U.S. agricultural exports.    We strongly urge you to ensure that the grain which America exports continues to meet the highest of standards expected by our trading customers, so that U.S. farmers who raise the best products in the world receive the prices they truly deserve. Thanks to the bipartisan Congressional effort that established FGIS, we have come a long way since the 1970s when a wholly privatized inspection process yielded a series of scandals that undermined confidence in the quantity and quality of U.S. grain exports; scandals which many believe contributed to a crash in grain prices in the middle of the decade, farm foreclosures, and the loss of significant numbers of family farms. AFGE and I believe America's farmers look to this Subcommittee to continue the record of bipartisan support for grain inspection and weighing performed by reliable and experienced Federal employees.    Thank you very much for your consideration of my testimony, I look forward to taking questions, and I yield back my time, Mr. Chairman.</t>
   </si>
   <si>
-    <t>Friant</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Friant. Chairman Crawford, Ranking Member Walz, Members of the Subcommittee, I am Nick Friant, Business Unit Food Safety Leader for Cargill, Inc., in Wayzata, Minnesota. I provide technical and regulatory compliance assistance on a wide range of issues related to grain quality, handling, and inventory for Cargill's operations and merchandising personnel in the U.S. and abroad. I appreciate the opportunity to testify today on behalf of the National Grain and Feed Association, and North American Export Grain Association. I chair NGFA's Grain Grades and Weights Committee, and co-chair NAEGA's Grain Grades and Inspections Committees, both of which address issues concerning the official grain inspection and weighing system and the U.S. Grain Standards Act.    Our organizations strongly support reauthorization of the U.S. Grain Standards Act, and offer recommendations to improve and maintain the U.S. official grain inspection system. The inspections and other services provided by FGIS contribute significantly to the marketing and trading of U.S. grains and oilseeds by establishing and maintaining U.S. grain standards, and providing official inspection and weighing services. That is why NGFA and NAEGA urge Congress, when developing legislation to reauthorize the U.S. Grain Standards Act, to address each of the following concerns.    First, in response to apparent system shortcomings, including the disruptions in official services at the Port of Vancouver, Washington, during 2013 and 2014, we urge that existing language in the Act be strengthened to reinforce the obligation of the Secretary of Agriculture to restore official service in a prompt manner. Make no mistake, foreign buyers, in particular, the Korea Flour Mills Industrial Association, took note of the very visible and extreme disruptions in such official inspections which damaged the reputation of FGIS, and undermined confidence of international buyers in the reliability of the U.S. official grain inspection system at export locations. I respectfully request that the letter from KOFMIA be made part of the hearing record. Also, a diverse array of U.S. farm, commodity, and agribusiness organizations, including NGFA and NAEGA, strongly encouraged action by the Secretary to meet his legal obligations to restore official inspection services in a pair of joint letters, but unfortunately, to no avail. I respectfully request that these letters also be made a part of the hearing record. Therefore, we urge that additional language be inserted into the U.S. Grain Standards Act to remove any uncertainty that the Secretary of Agriculture is to immediately, with the exceptions of disruptions caused by natural disasters, restore official grain inspection services if there are future interruptions or disruptions.    Second, we urge that the process used by FGIS to delegate or designate its authority to perform official service at export elevators be made more transparent and open to public comment, just as the agency already does through Federal Register notice and comment rulemaking when designating official inspection authority to state or private entities to serve the domestic market where the use of official inspection services is voluntary.    Further, NGFA and NAEGA strongly believe consideration should be given to directing FGIS to license and utilize, subject to FGIS oversight, the use of qualified personnel employed by independent third party entities to perform official services at export elevators through the existing licensing provisions embodied in the U.S. Grain Standards Act, particularly in cases where disruptions in official service occur. Some attempt to denigrate, undermine, or obfuscate this concept by labeling it as privatization. That emphatically is not what NGFA and NAEGA are proposing. In this regard, two recent studies conducted for NAEGA are enlightening, and show the degree to which personnel from these independent third parties already are working at export elevators to provide services that are above and beyond those mandated under the U.S. Grain Standards Act. I respectfully request that both of these studies be made part of the hearing record.    Third, NGFA and NAEGA support the U.S. Grain Standards Act provisions pertaining to FGIS's current authority to designate qualified accredited state or private entities to perform official inspection services in territories within the domestic market, and support the request to extend the duration of such designation to 5 years from the current 3 years.    Fourth, we urge that FGIS be required to base the tonnage portion of export inspection user fees on shifts in actual shipment volumes that are officially inspected by basing it on a 5 year rolling average.    Finally, we recommend that reauthorization of the U.S. Grain Standards Act be reduced from a period of 10 years to 5 years, particularly given the dynamic, changing, and highly competitive nature of the global grain export marketplace.    NGFA and NAEGA believe that our recommendations pursuant to the U.S. Grain Standards Act will help strengthen the official inspection and weighing system, enhance the competitive position of the U.S. grains and oilseeds in the world markets, and retain integrity of the U.S. inspection results.    Thank you for the opportunity to testify. I am pleased to respond to any questions you may have.</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And we do appreciate you coming and sharing with us today.    In your testimony, Mr. Cox, you were talking about the privatization factor as far as inspection goes and, of course, reading your testimony, obviously, privatization seems to be a big issue. What is the general attitude of the farm community out there about your service versus privatization?</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
     <t xml:space="preserve">    Mr. Winkles.--as soon as possible. Thank you.    Mr. David Scott of Georgia. I agree. Anyone else?    Mr. Cox. I think it is very, very important to get it done and to get it done quickly. I am sure all the Members of Congress, as well as myself, are always familiar what happens when we don't get legislation authorized, and we don't have monies appropriated, it becomes very chaotic for the entire country.    Mr. David Scott of Georgia. Yes.</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cox.--and grain exports are very, very important to this country, and we need to have this legislation to move.    Mr. David Scott of Georgia. All right. Thank you, Mr. Chairman.    The Chairman. The gentleman yields back.    And I recognize the full Committee Chairman, Mr. Conaway, for 5 minutes.    Mr. Conaway. Well, thank you, Mr. Chairman.    I just have one line of questioning. Mr. Cox, you guys may have already covered this, and I apologize if you did, in the Washington State incident, there was a labor dispute between the elevator and the longshoremen, and the inspectors finally decided to not cross the line. Is that what happened there, that is why we quit inspecting grain, or was there just no grain being loaded?</t>
   </si>
   <si>
@@ -377,9 +356,6 @@
   </si>
   <si>
     <t>412642</t>
-  </si>
-  <si>
-    <t>Brad Ashford</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, and most of my questions also have been asked and answered, though I just would stress that we export 50 percent of our wheat outside our borders. From Nebraska, we export 50 percent of our soybeans outside the state. It is a massively important part of our economy in our state, and it is growing.    Mr. Winkles, I would ask you--this is a good discussion. I am beginning to understand a little more about the need, certainly, of course, for reauthorization, but I am also sensing a need for some flexibility as we move forward if we are going to reauthorize for a relatively long period of time, which is a good thing. As we expand our trade, however, hopefully, as we expand our trade for agricultural exports from Nebraska and throughout the entire country, is there anything else, Mr. Winkles, if I might ask you, and I know there have been some discussions about other ideas, but with the system the way it is now, with the people we use now, do you see the advisory committee which has been mentioned, do you see anything else that we should be looking at in the reauthorization to ensure that, as trade does expand, which I fully expect and hope it does do, that we can meet our obligations and make sure that that grain is accepted in the countries we trade with?</t>
@@ -796,11 +772,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -820,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -846,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -872,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -898,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -924,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -950,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -976,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1002,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1028,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1054,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1080,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1108,11 +1060,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1132,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1160,11 +1108,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1184,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1212,11 +1156,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1236,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1264,11 +1204,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1290,11 +1228,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1316,11 +1252,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1340,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1368,11 +1300,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1392,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1420,11 +1348,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1444,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1472,11 +1396,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1496,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1524,11 +1444,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1548,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1576,11 +1492,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1600,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1628,11 +1540,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1652,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1680,11 +1588,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1704,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1732,11 +1636,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1756,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1782,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1808,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1834,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1860,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1886,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1912,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1938,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1964,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1990,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2016,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2042,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2068,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2094,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2120,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2146,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2172,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2198,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2224,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2250,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2276,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2302,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2328,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2354,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2380,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2406,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2432,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2458,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2484,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2510,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2536,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2562,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>82</v>
-      </c>
-      <c r="H70" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2588,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2614,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2640,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2666,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2692,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2718,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2744,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2770,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2796,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2822,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2848,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2874,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2900,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2926,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2952,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2978,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3004,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3030,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3056,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3082,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3108,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3134,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3160,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3186,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3212,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3238,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3264,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3290,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3316,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3342,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3368,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3394,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3420,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3446,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
-      </c>
-      <c r="G104" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3472,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3498,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3526,11 +3292,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,21 +55,39 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Well, good morning, and I want to thank the Chairman for holding today's hearing, and I associate myself with his comments on the need to get this done on time. That should be the standard, and that is what should be expected to give that certainty to our shippers, and to our global market partners. And I certainly look forward to working with everyone on the Subcommittee to get this done.    I want to thank our witnesses for being here. We have a wide variety of expertise amongst us, from Farm Bureau to NGFA to our friends in labor at AFGE, the folks who do the work out there.    I fully expect this cross-section of views will promote a vigorous debate, and that is what we are here to do. I think the reason, and everyone knows, the one overriding theme that we are here for is we must maintain the integrity of the system. It must be the gold standard as it has always been. It must be done that way, and we all absolutely agree upon that. There may be some divergence of opinion on how we get there. That is our job to get done. So I look forward to hearing those opinions, working with Chairman Crawford, a Chairman who I know is committed, as he always has been, to get this done on time, to get it done in a manner that satisfies all parties involved, and that we can move forward doing what we do best: feed the world. And that is what you do, and that is what we want to see happen.    And so I thank you, Chairman, for holding this hearing, and again, I look forward to working with you to get this done on time.    The Chairman. I thank the gentleman, and would recognize the Chairman of the full Committee, who is not here just yet, he will be here later on, we will recognize him when he arrives. And I would also like to recognize the Ranking Member of the full Committee for any opening statement he would like to make. Mr. Peterson.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman, and Mr. Walz, for holding today's hearing, and for working in a bipartisan way. It looks like we are going to get this bill worked out in a way that everybody can live with.    The inspections provided by the Federal Grain Inspection Service define and classify grains as well as assign grades to specify weight and quality requirements, and these inspections provide a gold standard assurance backed by the Federal Government to both grain buyers and sellers. American grain farmers participate in a very competitive world, and foreign grain buyers should be confident in the process that we have in place to ensure our exports are adequately inspected.    So as we move ahead with reauthorization, I hope that we can take stock in how well the current system of export inspections by the Federal and state agencies is working, and continue to work in a bipartisan basis and get this reauthorization moved through the both Houses and to the President's desk.    And I yield back.    The Chairman. I thank the gentleman.    I would like to recognize our witnesses. We have one panel and three witnesses. Starting with Mr. David Winkles, who is the President of South Carolina Farm Bureau Federation, Columbia, South Carolina; Mr. J. David Cox, Sr., National President, American Federation of Government Employees, here in Washington, D.C.; and Mr. Nick Friant, Chairman, NGFA Grain Grades and Weights Committee.    Thank you, gentlemen, for being here. And with that, I want to remind you that you have 5 minutes to make your oral testimony. Anything further will be submitted for the record in your written testimony. I would encourage you to watch the lights. Green means go, yellow is just like when you are driving; hurry it up, and when you see red, that means stop.    And with that, I am pleased to recognize Mr. David Winkles for 5 minutes. STATEMENT OF DAVID M. WINKLES, Jr., PRESIDENT, SOUTH CAROLINA </t>
   </si>
   <si>
+    <t>Winkles</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Winkles. Thank you, Mr. Chairman. For the record, Mr. Chairman, I received word from the American Soybean Association, the National Corn Growers Association, and the National Council of Farmer Cooperatives, informing me that they had received my written testimony, and have asked that I inform the Subcommittee that they support the points made in my testimony.    As a grain farmer, I understand the role and the work of the Federal Grain Inspection Service in the grain sector, but I believe I can add a unique perspective this morning, since I have had direct interactive experience with the FGIS through my responsibilities as President of the South Carolina Farm Bureau.    For several years, our organization operated a grain export elevator in Charleston, South Carolina. We were also in partnership with Carolina Soya in Hampton, South Carolina, a grain-handling and soybean processing operation, that provided a huge positive financial impact on the farmers in the Southeast. In the past, the South Carolina Farm Bureau Marketing Association operated a large number of local grain elevators, and we still own and operate one. In each of these facilities, FGIS was and is a major asset in our ability to market grains domestically and internationally. The grades established by the agency served to set the standard for every contract, and when coupled with the official inspection services, particularly with regards to export, FGIS provided the necessary and credible third party verification of grain standards that provide efficiencies in the marketing and movement of grain. Without these standards and verification of grades, every transaction would have been significantly more difficult and much more expensive.    As I am sure you know, in order to encourage the marketing of high quality grain for an agricultural sector, it is highly dependent upon export demand. The Act requires that exported grains and oilseeds be officially inspected if sold by grade and weight. Export inspections are carried out either by Federal inspectors or federally supervised state agencies called delegated official inspection agencies. We believe that any change in these fundamental requirements needs to be thoroughly and carefully considered in the context of how our international customers and their respective governments would view such changes. This is important today when some countries have shown very little reluctance to use some very interesting excuses to stop or inhibit exports of U.S. agricultural commodities and products.    We applaud your actions to move this legislation earlier this year because, as you know and as you have said, several provisions of the Act will expire in September, including the authority for FGIS to collect user fees that fund their operations, and the authority for the USDA Grain Advisory Committee. It is critically important to the grain sector that we maintain the ability for FGIS to continue to perform its duties and functions and not be allowed to lapse. We urge the Committee to reauthorize the Act in a timely manner.    Also, Farm Bureau believes that it is important to ensure that the extremely troubling precedent set in the State of Washington last summer, and similar situations that have occurred at other West Coast ports, are not repeated. We believe that the Washington State Department of Agriculture's actions created a precedent that was amplified by the FGIS decision to not intervene. The incident created uncertainty in our reputation as a reliable supplier of grains and oilseeds to foreign customers. We believe it is imperative for you to consider adoption of a contingency plan that would ensure an immediate and effective program to continue official services at a port. The lack or disruption of an accepted grain standards and accepted accredited inspection procedure will cause chaotic marketing conditions, and will financially negatively impact farmers, local business, and consumers.    Disruption of official grading and inspection services can have an impact on the timing of purchases and the delivery of sales, and jeopardize marketing agreements and arrangements that have often taken years to put in place. We must have contingency procedures ready so that disruptions of any kind will not negatively impact the viability of hard-won contracts.    Again, thank you for the opportunity to testify today. Farm Bureau supports reauthorization of the Act, in addition to the Federal organizations I mentioned earlier, with the addition of a contingency plan. We also support the continuation of the Grain Inspection Advisory Committee. For all of our grain farmers and our industry sector partners, we appreciate the important work you do as Representatives of our country. Thank you.</t>
   </si>
   <si>
+    <t>Cox</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cox. Thank you, Mr. Chairman. And on behalf of AFGE, I am proud to represent the dedicated Federal employees and the Federal Grain Inspection Service in Louisiana, Texas, Washington, and Oregon, as well as other locations throughout the country. And I appreciate the sincere efforts of this Subcommittee to take into account our views as lawmakers draft the reauthorization measure.    FGIS, with its successful record of over 4 decades of inspecting and weighing nearly 90 percent of the grain shipped to customers around the world, guarantees impartial and open trading which greatly facilitates U.S. grain exports. We understand that a small minority of voices demand that the reauthorization bill be used to privatize the weighing and inspection of grain. Of course, many of these same voices called for the privatization of grain inspection and weighing back in 2005, the last time the law was reauthorized. That ill-advised effort ultimately failed thanks to a broad coalition of farmers, consumers, and workers. There is no question that this important function must continue to be performed by reliable and experienced FGIS employees, and I strongly urge the Subcommittee to oppose efforts to use the reauthorization of the U.S. Grain Standards Act, or any other measure for that matter, to promote the privatization of this work. Privatization of FGIS would undermine America's guarantee of impartial and honest government-backed trading, which is relied upon by world buyers. The substitution of rubber-stamped inspections actually completed by industry paid inspectors would undermine international confidence in the integrity of U.S. agricultural exports.    We strongly urge you to ensure that the grain which America exports continues to meet the highest of standards expected by our trading customers, so that U.S. farmers who raise the best products in the world receive the prices they truly deserve. Thanks to the bipartisan Congressional effort that established FGIS, we have come a long way since the 1970s when a wholly privatized inspection process yielded a series of scandals that undermined confidence in the quantity and quality of U.S. grain exports; scandals which many believe contributed to a crash in grain prices in the middle of the decade, farm foreclosures, and the loss of significant numbers of family farms. AFGE and I believe America's farmers look to this Subcommittee to continue the record of bipartisan support for grain inspection and weighing performed by reliable and experienced Federal employees.    Thank you very much for your consideration of my testimony, I look forward to taking questions, and I yield back my time, Mr. Chairman.</t>
   </si>
   <si>
+    <t>Friant</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Friant. Chairman Crawford, Ranking Member Walz, Members of the Subcommittee, I am Nick Friant, Business Unit Food Safety Leader for Cargill, Inc., in Wayzata, Minnesota. I provide technical and regulatory compliance assistance on a wide range of issues related to grain quality, handling, and inventory for Cargill's operations and merchandising personnel in the U.S. and abroad. I appreciate the opportunity to testify today on behalf of the National Grain and Feed Association, and North American Export Grain Association. I chair NGFA's Grain Grades and Weights Committee, and co-chair NAEGA's Grain Grades and Inspections Committees, both of which address issues concerning the official grain inspection and weighing system and the U.S. Grain Standards Act.    Our organizations strongly support reauthorization of the U.S. Grain Standards Act, and offer recommendations to improve and maintain the U.S. official grain inspection system. The inspections and other services provided by FGIS contribute significantly to the marketing and trading of U.S. grains and oilseeds by establishing and maintaining U.S. grain standards, and providing official inspection and weighing services. That is why NGFA and NAEGA urge Congress, when developing legislation to reauthorize the U.S. Grain Standards Act, to address each of the following concerns.    First, in response to apparent system shortcomings, including the disruptions in official services at the Port of Vancouver, Washington, during 2013 and 2014, we urge that existing language in the Act be strengthened to reinforce the obligation of the Secretary of Agriculture to restore official service in a prompt manner. Make no mistake, foreign buyers, in particular, the Korea Flour Mills Industrial Association, took note of the very visible and extreme disruptions in such official inspections which damaged the reputation of FGIS, and undermined confidence of international buyers in the reliability of the U.S. official grain inspection system at export locations. I respectfully request that the letter from KOFMIA be made part of the hearing record. Also, a diverse array of U.S. farm, commodity, and agribusiness organizations, including NGFA and NAEGA, strongly encouraged action by the Secretary to meet his legal obligations to restore official inspection services in a pair of joint letters, but unfortunately, to no avail. I respectfully request that these letters also be made a part of the hearing record. Therefore, we urge that additional language be inserted into the U.S. Grain Standards Act to remove any uncertainty that the Secretary of Agriculture is to immediately, with the exceptions of disruptions caused by natural disasters, restore official grain inspection services if there are future interruptions or disruptions.    Second, we urge that the process used by FGIS to delegate or designate its authority to perform official service at export elevators be made more transparent and open to public comment, just as the agency already does through Federal Register notice and comment rulemaking when designating official inspection authority to state or private entities to serve the domestic market where the use of official inspection services is voluntary.    Further, NGFA and NAEGA strongly believe consideration should be given to directing FGIS to license and utilize, subject to FGIS oversight, the use of qualified personnel employed by independent third party entities to perform official services at export elevators through the existing licensing provisions embodied in the U.S. Grain Standards Act, particularly in cases where disruptions in official service occur. Some attempt to denigrate, undermine, or obfuscate this concept by labeling it as privatization. That emphatically is not what NGFA and NAEGA are proposing. In this regard, two recent studies conducted for NAEGA are enlightening, and show the degree to which personnel from these independent third parties already are working at export elevators to provide services that are above and beyond those mandated under the U.S. Grain Standards Act. I respectfully request that both of these studies be made part of the hearing record.    Third, NGFA and NAEGA support the U.S. Grain Standards Act provisions pertaining to FGIS's current authority to designate qualified accredited state or private entities to perform official inspection services in territories within the domestic market, and support the request to extend the duration of such designation to 5 years from the current 3 years.    Fourth, we urge that FGIS be required to base the tonnage portion of export inspection user fees on shifts in actual shipment volumes that are officially inspected by basing it on a 5 year rolling average.    Finally, we recommend that reauthorization of the U.S. Grain Standards Act be reduced from a period of 10 years to 5 years, particularly given the dynamic, changing, and highly competitive nature of the global grain export marketplace.    NGFA and NAEGA believe that our recommendations pursuant to the U.S. Grain Standards Act will help strengthen the official inspection and weighing system, enhance the competitive position of the U.S. grains and oilseeds in the world markets, and retain integrity of the U.S. inspection results.    Thank you for the opportunity to testify. I am pleased to respond to any questions you may have.</t>
   </si>
   <si>
@@ -247,6 +268,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And we do appreciate you coming and sharing with us today.    In your testimony, Mr. Cox, you were talking about the privatization factor as far as inspection goes and, of course, reading your testimony, obviously, privatization seems to be a big issue. What is the general attitude of the farm community out there about your service versus privatization?</t>
   </si>
   <si>
@@ -304,6 +331,9 @@
     <t xml:space="preserve">    Mr. Winkles.--as soon as possible. Thank you.    Mr. David Scott of Georgia. I agree. Anyone else?    Mr. Cox. I think it is very, very important to get it done and to get it done quickly. I am sure all the Members of Congress, as well as myself, are always familiar what happens when we don't get legislation authorized, and we don't have monies appropriated, it becomes very chaotic for the entire country.    Mr. David Scott of Georgia. Yes.</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cox.--and grain exports are very, very important to this country, and we need to have this legislation to move.    Mr. David Scott of Georgia. All right. Thank you, Mr. Chairman.    The Chairman. The gentleman yields back.    And I recognize the full Committee Chairman, Mr. Conaway, for 5 minutes.    Mr. Conaway. Well, thank you, Mr. Chairman.    I just have one line of questioning. Mr. Cox, you guys may have already covered this, and I apologize if you did, in the Washington State incident, there was a labor dispute between the elevator and the longshoremen, and the inspectors finally decided to not cross the line. Is that what happened there, that is why we quit inspecting grain, or was there just no grain being loaded?</t>
   </si>
   <si>
@@ -356,6 +386,12 @@
   </si>
   <si>
     <t>412642</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, and most of my questions also have been asked and answered, though I just would stress that we export 50 percent of our wheat outside our borders. From Nebraska, we export 50 percent of our soybeans outside the state. It is a massively important part of our economy in our state, and it is growing.    Mr. Winkles, I would ask you--this is a good discussion. I am beginning to understand a little more about the need, certainly, of course, for reauthorization, but I am also sensing a need for some flexibility as we move forward if we are going to reauthorize for a relatively long period of time, which is a good thing. As we expand our trade, however, hopefully, as we expand our trade for agricultural exports from Nebraska and throughout the entire country, is there anything else, Mr. Winkles, if I might ask you, and I know there have been some discussions about other ideas, but with the system the way it is now, with the people we use now, do you see the advisory committee which has been mentioned, do you see anything else that we should be looking at in the reauthorization to ensure that, as trade does expand, which I fully expect and hope it does do, that we can meet our obligations and make sure that that grain is accepted in the countries we trade with?</t>
@@ -722,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,7 +766,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,2549 +788,2926 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
       <c r="H73" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>105</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>105</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G102" t="s">
+        <v>124</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G104" t="s">
+        <v>124</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G106" t="s">
+        <v>124</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94371.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Walz</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
   </si>
   <si>
     <t>412625</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Allen</t>
@@ -758,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,2923 +800,3088 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>105</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>105</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>105</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>105</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>108</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>105</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>108</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>105</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>108</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>105</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>105</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>105</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>108</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G102" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I104" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
